--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value291.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value291.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.262490505599345</v>
+        <v>0.9176648259162903</v>
       </c>
       <c r="B1">
-        <v>1.819245472526876</v>
+        <v>1.243325352668762</v>
       </c>
       <c r="C1">
-        <v>1.865275792129865</v>
+        <v>2.122494220733643</v>
       </c>
       <c r="D1">
-        <v>2.193241140810638</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.845418942990104</v>
+        <v>2.082007884979248</v>
       </c>
     </row>
   </sheetData>
